--- a/biology/Botanique/Gypsophila_paniculata/Gypsophila_paniculata.xlsx
+++ b/biology/Botanique/Gypsophila_paniculata/Gypsophila_paniculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gypsophile paniculée
 La gypsophile paniculée (Gypsophila paniculata) est une herbacée de la famille des Caryophyllaceae. Elle est utilisée notamment comme plante ornementale au jardin ou bien dans la composition des bouquets. Elle est caractérisée par la multitude de petites fleurs sur une inflorescence très ramifiée qui lui vaut le nom vernaculaire de Gypsophile nuage ou Souffle de bébé (au Québec).
@@ -512,7 +524,9 @@
           <t>Description de l'espèce</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Planche botanique
@@ -547,11 +561,13 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 janvier 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 janvier 2017) :
 variété Gypsophila paniculata var. araratica
-Selon Tropicos                                           (8 janvier 2017)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 janvier 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Gypsophila paniculata subsp. bicolor Freyn &amp; Sint.
 variété Gypsophila paniculata var. adenopoda Borbás ex Hallier
 variété Gypsophila paniculata var. araratica Hub.-Mor.
@@ -586,9 +602,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante ornementale, de hauteur variable (tiges de 0,30 m à 0,80 mètre)[4] qui apporte de la légèreté aux massifs floraux, une fleur à couper pour agrémenter les bouquets, mais aussi une plante médicinale.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante ornementale, de hauteur variable (tiges de 0,30 m à 0,80 mètre) qui apporte de la légèreté aux massifs floraux, une fleur à couper pour agrémenter les bouquets, mais aussi une plante médicinale.
 </t>
         </is>
       </c>
